--- a/data/processed/hyalophane_StA/calczaf_files/calczaf_outputs.xlsx
+++ b/data/processed/hyalophane_StA/calczaf_files/calczaf_outputs.xlsx
@@ -1796,31 +1796,31 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.059</v>
+        <v>0.052</v>
       </c>
       <c r="C7">
-        <v>0.048</v>
+        <v>0.042</v>
       </c>
       <c r="D7">
+        <v>0.045</v>
+      </c>
+      <c r="E7">
+        <v>0.045</v>
+      </c>
+      <c r="F7">
         <v>0.051</v>
       </c>
-      <c r="E7">
-        <v>0.051</v>
-      </c>
-      <c r="F7">
-        <v>0.059</v>
-      </c>
       <c r="G7">
-        <v>0.053</v>
+        <v>0.047</v>
       </c>
       <c r="H7">
         <v>0.005</v>
       </c>
       <c r="I7">
-        <v>0.048</v>
+        <v>0.042</v>
       </c>
       <c r="J7">
-        <v>0.059</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1828,31 +1828,31 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.206</v>
+        <v>0.181</v>
       </c>
       <c r="C8">
-        <v>0.165</v>
+        <v>0.145</v>
       </c>
       <c r="D8">
+        <v>0.155</v>
+      </c>
+      <c r="E8">
+        <v>0.155</v>
+      </c>
+      <c r="F8">
         <v>0.178</v>
       </c>
-      <c r="E8">
-        <v>0.176</v>
-      </c>
-      <c r="F8">
-        <v>0.203</v>
-      </c>
       <c r="G8">
-        <v>0.186</v>
+        <v>0.163</v>
       </c>
       <c r="H8">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="I8">
-        <v>0.165</v>
+        <v>0.145</v>
       </c>
       <c r="J8">
-        <v>0.206</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1924,31 +1924,31 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>40.379</v>
+        <v>40.364</v>
       </c>
       <c r="C11">
-        <v>40.355</v>
+        <v>40.343</v>
       </c>
       <c r="D11">
+        <v>40.349</v>
+      </c>
+      <c r="E11">
+        <v>40.349</v>
+      </c>
+      <c r="F11">
         <v>40.362</v>
       </c>
-      <c r="E11">
-        <v>40.361</v>
-      </c>
-      <c r="F11">
-        <v>40.377</v>
-      </c>
       <c r="G11">
-        <v>40.367</v>
+        <v>40.354</v>
       </c>
       <c r="H11">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I11">
-        <v>40.355</v>
+        <v>40.343</v>
       </c>
       <c r="J11">
-        <v>40.379</v>
+        <v>40.364</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1956,31 +1956,31 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>100.406</v>
+        <v>100.36</v>
       </c>
       <c r="C12">
-        <v>100.329</v>
+        <v>100.291</v>
       </c>
       <c r="D12">
+        <v>100.311</v>
+      </c>
+      <c r="E12">
+        <v>100.31</v>
+      </c>
+      <c r="F12">
         <v>100.353</v>
       </c>
-      <c r="E12">
-        <v>100.349</v>
-      </c>
-      <c r="F12">
-        <v>100.4</v>
-      </c>
       <c r="G12">
-        <v>100.367</v>
+        <v>100.325</v>
       </c>
       <c r="H12">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="I12">
-        <v>100.329</v>
+        <v>100.291</v>
       </c>
       <c r="J12">
-        <v>100.406</v>
+        <v>100.36</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2180,31 +2180,31 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>0.059</v>
+        <v>0.052</v>
       </c>
       <c r="C20">
-        <v>0.048</v>
+        <v>0.042</v>
       </c>
       <c r="D20">
+        <v>0.045</v>
+      </c>
+      <c r="E20">
+        <v>0.045</v>
+      </c>
+      <c r="F20">
         <v>0.051</v>
       </c>
-      <c r="E20">
-        <v>0.051</v>
-      </c>
-      <c r="F20">
-        <v>0.059</v>
-      </c>
       <c r="G20">
-        <v>0.053</v>
+        <v>0.047</v>
       </c>
       <c r="H20">
         <v>0.005</v>
       </c>
       <c r="I20">
-        <v>0.048</v>
+        <v>0.042</v>
       </c>
       <c r="J20">
-        <v>0.059</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2212,31 +2212,31 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.324</v>
+        <v>0.285</v>
       </c>
       <c r="C21">
-        <v>0.259</v>
+        <v>0.227</v>
       </c>
       <c r="D21">
-        <v>0.28</v>
+        <v>0.244</v>
       </c>
       <c r="E21">
-        <v>0.276</v>
+        <v>0.243</v>
       </c>
       <c r="F21">
-        <v>0.32</v>
+        <v>0.279</v>
       </c>
       <c r="G21">
-        <v>0.292</v>
+        <v>0.256</v>
       </c>
       <c r="H21">
-        <v>0.029</v>
+        <v>0.025</v>
       </c>
       <c r="I21">
-        <v>0.259</v>
+        <v>0.227</v>
       </c>
       <c r="J21">
-        <v>0.324</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2308,31 +2308,31 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <v>100.405</v>
+        <v>100.359</v>
       </c>
       <c r="C24">
-        <v>100.329</v>
+        <v>100.291</v>
       </c>
       <c r="D24">
-        <v>100.353</v>
+        <v>100.31</v>
       </c>
       <c r="E24">
-        <v>100.348</v>
+        <v>100.31</v>
       </c>
       <c r="F24">
-        <v>100.4</v>
+        <v>100.352</v>
       </c>
       <c r="G24">
-        <v>100.367</v>
+        <v>100.325</v>
       </c>
       <c r="H24">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="I24">
-        <v>100.329</v>
+        <v>100.291</v>
       </c>
       <c r="J24">
-        <v>100.405</v>
+        <v>100.359</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2372,31 +2372,31 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>19.522</v>
+        <v>19.568</v>
       </c>
       <c r="C27">
-        <v>19.598</v>
+        <v>19.636</v>
       </c>
       <c r="D27">
-        <v>19.574</v>
+        <v>19.617</v>
       </c>
       <c r="E27">
-        <v>19.579</v>
+        <v>19.617</v>
       </c>
       <c r="F27">
-        <v>19.527</v>
+        <v>19.575</v>
       </c>
       <c r="G27">
-        <v>19.56</v>
+        <v>19.602</v>
       </c>
       <c r="H27">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="I27">
-        <v>19.522</v>
+        <v>19.568</v>
       </c>
       <c r="J27">
-        <v>19.598</v>
+        <v>19.636</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2404,31 +2404,31 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>10.557</v>
+        <v>10.582</v>
       </c>
       <c r="C28">
-        <v>10.598</v>
+        <v>10.619</v>
       </c>
       <c r="D28">
-        <v>10.585</v>
+        <v>10.608</v>
       </c>
       <c r="E28">
-        <v>10.588</v>
+        <v>10.608</v>
       </c>
       <c r="F28">
-        <v>10.56</v>
+        <v>10.586</v>
       </c>
       <c r="G28">
-        <v>10.578</v>
+        <v>10.6</v>
       </c>
       <c r="H28">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="I28">
-        <v>10.557</v>
+        <v>10.582</v>
       </c>
       <c r="J28">
-        <v>10.598</v>
+        <v>10.619</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2468,31 +2468,31 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>3.132</v>
+        <v>3.139</v>
       </c>
       <c r="C30">
+        <v>3.15</v>
+      </c>
+      <c r="D30">
+        <v>3.147</v>
+      </c>
+      <c r="E30">
+        <v>3.147</v>
+      </c>
+      <c r="F30">
+        <v>3.14</v>
+      </c>
+      <c r="G30">
         <v>3.144</v>
-      </c>
-      <c r="D30">
-        <v>3.14</v>
-      </c>
-      <c r="E30">
-        <v>3.141</v>
-      </c>
-      <c r="F30">
-        <v>3.132</v>
-      </c>
-      <c r="G30">
-        <v>3.138</v>
       </c>
       <c r="H30">
         <v>0.005</v>
       </c>
       <c r="I30">
-        <v>3.132</v>
+        <v>3.139</v>
       </c>
       <c r="J30">
-        <v>3.144</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2500,31 +2500,31 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>1.175</v>
+        <v>1.178</v>
       </c>
       <c r="C31">
-        <v>1.179</v>
+        <v>1.182</v>
       </c>
       <c r="D31">
+        <v>1.18</v>
+      </c>
+      <c r="E31">
+        <v>1.181</v>
+      </c>
+      <c r="F31">
         <v>1.178</v>
       </c>
-      <c r="E31">
-        <v>1.178</v>
-      </c>
-      <c r="F31">
-        <v>1.175</v>
-      </c>
       <c r="G31">
-        <v>1.177</v>
+        <v>1.18</v>
       </c>
       <c r="H31">
         <v>0.002</v>
       </c>
       <c r="I31">
-        <v>1.175</v>
+        <v>1.178</v>
       </c>
       <c r="J31">
-        <v>1.179</v>
+        <v>1.182</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2532,31 +2532,31 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>1.413</v>
+        <v>1.246</v>
       </c>
       <c r="C32">
-        <v>1.136</v>
+        <v>0.997</v>
       </c>
       <c r="D32">
-        <v>1.222</v>
+        <v>1.068</v>
       </c>
       <c r="E32">
-        <v>1.206</v>
+        <v>1.067</v>
       </c>
       <c r="F32">
-        <v>1.394</v>
+        <v>1.221</v>
       </c>
       <c r="G32">
-        <v>1.274</v>
+        <v>1.12</v>
       </c>
       <c r="H32">
-        <v>0.123</v>
+        <v>0.108</v>
       </c>
       <c r="I32">
-        <v>1.136</v>
+        <v>0.997</v>
       </c>
       <c r="J32">
-        <v>1.413</v>
+        <v>1.246</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2564,31 +2564,31 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>0.353</v>
+        <v>0.312</v>
       </c>
       <c r="C33">
-        <v>0.284</v>
+        <v>0.249</v>
       </c>
       <c r="D33">
-        <v>0.306</v>
+        <v>0.267</v>
       </c>
       <c r="E33">
-        <v>0.301</v>
+        <v>0.267</v>
       </c>
       <c r="F33">
-        <v>0.348</v>
+        <v>0.305</v>
       </c>
       <c r="G33">
-        <v>0.318</v>
+        <v>0.28</v>
       </c>
       <c r="H33">
-        <v>0.031</v>
+        <v>0.027</v>
       </c>
       <c r="I33">
-        <v>0.284</v>
+        <v>0.249</v>
       </c>
       <c r="J33">
-        <v>0.353</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2596,7 +2596,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="C34">
         <v>0.094</v>
@@ -2608,7 +2608,7 @@
         <v>0.094</v>
       </c>
       <c r="F34">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="G34">
         <v>0.094</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="J34">
         <v>0.094</v>
@@ -2628,31 +2628,31 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>3.22</v>
+        <v>3.228</v>
       </c>
       <c r="C35">
-        <v>3.232</v>
+        <v>3.239</v>
       </c>
       <c r="D35">
+        <v>3.236</v>
+      </c>
+      <c r="E35">
+        <v>3.236</v>
+      </c>
+      <c r="F35">
+        <v>3.229</v>
+      </c>
+      <c r="G35">
+        <v>3.233</v>
+      </c>
+      <c r="H35">
+        <v>0.005</v>
+      </c>
+      <c r="I35">
         <v>3.228</v>
       </c>
-      <c r="E35">
-        <v>3.229</v>
-      </c>
-      <c r="F35">
-        <v>3.221</v>
-      </c>
-      <c r="G35">
-        <v>3.226</v>
-      </c>
-      <c r="H35">
-        <v>0.006</v>
-      </c>
-      <c r="I35">
-        <v>3.22</v>
-      </c>
       <c r="J35">
-        <v>3.232</v>
+        <v>3.239</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2660,31 +2660,31 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>60.529</v>
+        <v>60.649</v>
       </c>
       <c r="C36">
-        <v>60.729</v>
+        <v>60.829</v>
       </c>
       <c r="D36">
+        <v>60.778</v>
+      </c>
+      <c r="E36">
+        <v>60.779</v>
+      </c>
+      <c r="F36">
         <v>60.667</v>
       </c>
-      <c r="E36">
-        <v>60.678</v>
-      </c>
-      <c r="F36">
-        <v>60.543</v>
-      </c>
       <c r="G36">
-        <v>60.629</v>
+        <v>60.74</v>
       </c>
       <c r="H36">
-        <v>0.08799999999999999</v>
+        <v>0.078</v>
       </c>
       <c r="I36">
-        <v>60.529</v>
+        <v>60.649</v>
       </c>
       <c r="J36">
-        <v>60.729</v>
+        <v>60.829</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2932,31 +2932,31 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.062</v>
+        <v>0.055</v>
       </c>
       <c r="C7">
-        <v>0.05</v>
+        <v>0.044</v>
       </c>
       <c r="D7">
-        <v>0.053</v>
+        <v>0.047</v>
       </c>
       <c r="E7">
-        <v>0.053</v>
+        <v>0.047</v>
       </c>
       <c r="F7">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
       <c r="G7">
-        <v>0.056</v>
+        <v>0.049</v>
       </c>
       <c r="H7">
         <v>0.005</v>
       </c>
       <c r="I7">
-        <v>0.05</v>
+        <v>0.044</v>
       </c>
       <c r="J7">
-        <v>0.062</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2964,31 +2964,31 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.215</v>
+        <v>0.191</v>
       </c>
       <c r="C8">
-        <v>0.172</v>
+        <v>0.152</v>
       </c>
       <c r="D8">
-        <v>0.185</v>
+        <v>0.163</v>
       </c>
       <c r="E8">
-        <v>0.183</v>
+        <v>0.163</v>
       </c>
       <c r="F8">
-        <v>0.212</v>
+        <v>0.187</v>
       </c>
       <c r="G8">
-        <v>0.193</v>
+        <v>0.171</v>
       </c>
       <c r="H8">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="I8">
-        <v>0.172</v>
+        <v>0.152</v>
       </c>
       <c r="J8">
-        <v>0.215</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3060,31 +3060,31 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>40.384</v>
+        <v>40.37</v>
       </c>
       <c r="C11">
+        <v>40.348</v>
+      </c>
+      <c r="D11">
+        <v>40.354</v>
+      </c>
+      <c r="E11">
+        <v>40.354</v>
+      </c>
+      <c r="F11">
+        <v>40.368</v>
+      </c>
+      <c r="G11">
         <v>40.359</v>
       </c>
-      <c r="D11">
-        <v>40.367</v>
-      </c>
-      <c r="E11">
-        <v>40.365</v>
-      </c>
-      <c r="F11">
-        <v>40.382</v>
-      </c>
-      <c r="G11">
-        <v>40.371</v>
-      </c>
       <c r="H11">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="I11">
-        <v>40.359</v>
+        <v>40.348</v>
       </c>
       <c r="J11">
-        <v>40.384</v>
+        <v>40.37</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3092,31 +3092,31 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>100.422</v>
+        <v>100.377</v>
       </c>
       <c r="C12">
-        <v>100.342</v>
+        <v>100.306</v>
       </c>
       <c r="D12">
-        <v>100.367</v>
+        <v>100.326</v>
       </c>
       <c r="E12">
-        <v>100.362</v>
+        <v>100.326</v>
       </c>
       <c r="F12">
-        <v>100.416</v>
+        <v>100.37</v>
       </c>
       <c r="G12">
-        <v>100.382</v>
+        <v>100.341</v>
       </c>
       <c r="H12">
-        <v>0.035</v>
+        <v>0.031</v>
       </c>
       <c r="I12">
-        <v>100.342</v>
+        <v>100.306</v>
       </c>
       <c r="J12">
-        <v>100.422</v>
+        <v>100.377</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3316,31 +3316,31 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>0.062</v>
+        <v>0.055</v>
       </c>
       <c r="C20">
-        <v>0.05</v>
+        <v>0.044</v>
       </c>
       <c r="D20">
-        <v>0.053</v>
+        <v>0.047</v>
       </c>
       <c r="E20">
-        <v>0.053</v>
+        <v>0.047</v>
       </c>
       <c r="F20">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
       <c r="G20">
-        <v>0.056</v>
+        <v>0.049</v>
       </c>
       <c r="H20">
         <v>0.005</v>
       </c>
       <c r="I20">
-        <v>0.05</v>
+        <v>0.044</v>
       </c>
       <c r="J20">
-        <v>0.062</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3348,31 +3348,31 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.338</v>
+        <v>0.3</v>
       </c>
       <c r="C21">
-        <v>0.27</v>
+        <v>0.239</v>
       </c>
       <c r="D21">
-        <v>0.291</v>
+        <v>0.257</v>
       </c>
       <c r="E21">
-        <v>0.287</v>
+        <v>0.256</v>
       </c>
       <c r="F21">
-        <v>0.333</v>
+        <v>0.294</v>
       </c>
       <c r="G21">
-        <v>0.304</v>
+        <v>0.269</v>
       </c>
       <c r="H21">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
       <c r="I21">
-        <v>0.27</v>
+        <v>0.239</v>
       </c>
       <c r="J21">
-        <v>0.338</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3444,31 +3444,31 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <v>100.421</v>
+        <v>100.377</v>
       </c>
       <c r="C24">
-        <v>100.342</v>
+        <v>100.305</v>
       </c>
       <c r="D24">
-        <v>100.366</v>
+        <v>100.325</v>
       </c>
       <c r="E24">
-        <v>100.362</v>
+        <v>100.325</v>
       </c>
       <c r="F24">
-        <v>100.416</v>
+        <v>100.37</v>
       </c>
       <c r="G24">
-        <v>100.381</v>
+        <v>100.34</v>
       </c>
       <c r="H24">
-        <v>0.035</v>
+        <v>0.031</v>
       </c>
       <c r="I24">
-        <v>100.342</v>
+        <v>100.305</v>
       </c>
       <c r="J24">
-        <v>100.421</v>
+        <v>100.377</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3508,31 +3508,31 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>19.506</v>
+        <v>19.55</v>
       </c>
       <c r="C27">
-        <v>19.585</v>
+        <v>19.622</v>
       </c>
       <c r="D27">
-        <v>19.561</v>
+        <v>19.601</v>
       </c>
       <c r="E27">
-        <v>19.565</v>
+        <v>19.602</v>
       </c>
       <c r="F27">
-        <v>19.512</v>
+        <v>19.557</v>
       </c>
       <c r="G27">
-        <v>19.546</v>
+        <v>19.586</v>
       </c>
       <c r="H27">
-        <v>0.035</v>
+        <v>0.031</v>
       </c>
       <c r="I27">
-        <v>19.506</v>
+        <v>19.55</v>
       </c>
       <c r="J27">
-        <v>19.585</v>
+        <v>19.622</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3540,31 +3540,31 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>10.548</v>
+        <v>10.572</v>
       </c>
       <c r="C28">
-        <v>10.591</v>
+        <v>10.611</v>
       </c>
       <c r="D28">
-        <v>10.578</v>
+        <v>10.6</v>
       </c>
       <c r="E28">
-        <v>10.58</v>
+        <v>10.6</v>
       </c>
       <c r="F28">
-        <v>10.551</v>
+        <v>10.576</v>
       </c>
       <c r="G28">
-        <v>10.57</v>
+        <v>10.592</v>
       </c>
       <c r="H28">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="I28">
-        <v>10.548</v>
+        <v>10.572</v>
       </c>
       <c r="J28">
-        <v>10.591</v>
+        <v>10.611</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3604,31 +3604,31 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>3.129</v>
+        <v>3.136</v>
       </c>
       <c r="C30">
+        <v>3.148</v>
+      </c>
+      <c r="D30">
+        <v>3.144</v>
+      </c>
+      <c r="E30">
+        <v>3.144</v>
+      </c>
+      <c r="F30">
+        <v>3.137</v>
+      </c>
+      <c r="G30">
         <v>3.142</v>
       </c>
-      <c r="D30">
-        <v>3.138</v>
-      </c>
-      <c r="E30">
-        <v>3.139</v>
-      </c>
-      <c r="F30">
-        <v>3.13</v>
-      </c>
-      <c r="G30">
-        <v>3.135</v>
-      </c>
       <c r="H30">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="I30">
-        <v>3.129</v>
+        <v>3.136</v>
       </c>
       <c r="J30">
-        <v>3.142</v>
+        <v>3.148</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3636,31 +3636,31 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>1.174</v>
+        <v>1.176</v>
       </c>
       <c r="C31">
+        <v>1.181</v>
+      </c>
+      <c r="D31">
+        <v>1.18</v>
+      </c>
+      <c r="E31">
+        <v>1.18</v>
+      </c>
+      <c r="F31">
+        <v>1.177</v>
+      </c>
+      <c r="G31">
         <v>1.179</v>
-      </c>
-      <c r="D31">
-        <v>1.177</v>
-      </c>
-      <c r="E31">
-        <v>1.178</v>
-      </c>
-      <c r="F31">
-        <v>1.174</v>
-      </c>
-      <c r="G31">
-        <v>1.176</v>
       </c>
       <c r="H31">
         <v>0.002</v>
       </c>
       <c r="I31">
-        <v>1.174</v>
+        <v>1.176</v>
       </c>
       <c r="J31">
-        <v>1.179</v>
+        <v>1.181</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3668,31 +3668,31 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>1.471</v>
+        <v>1.31</v>
       </c>
       <c r="C32">
-        <v>1.182</v>
+        <v>1.049</v>
       </c>
       <c r="D32">
-        <v>1.272</v>
+        <v>1.123</v>
       </c>
       <c r="E32">
-        <v>1.255</v>
+        <v>1.122</v>
       </c>
       <c r="F32">
-        <v>1.45</v>
+        <v>1.284</v>
       </c>
       <c r="G32">
-        <v>1.326</v>
+        <v>1.178</v>
       </c>
       <c r="H32">
-        <v>0.128</v>
+        <v>0.114</v>
       </c>
       <c r="I32">
-        <v>1.182</v>
+        <v>1.049</v>
       </c>
       <c r="J32">
-        <v>1.471</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3700,31 +3700,31 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>0.368</v>
+        <v>0.328</v>
       </c>
       <c r="C33">
-        <v>0.296</v>
+        <v>0.262</v>
       </c>
       <c r="D33">
-        <v>0.318</v>
+        <v>0.281</v>
       </c>
       <c r="E33">
-        <v>0.314</v>
+        <v>0.28</v>
       </c>
       <c r="F33">
-        <v>0.363</v>
+        <v>0.321</v>
       </c>
       <c r="G33">
-        <v>0.332</v>
+        <v>0.294</v>
       </c>
       <c r="H33">
-        <v>0.032</v>
+        <v>0.028</v>
       </c>
       <c r="I33">
-        <v>0.296</v>
+        <v>0.262</v>
       </c>
       <c r="J33">
-        <v>0.368</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3732,7 +3732,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="C34">
         <v>0.094</v>
@@ -3744,16 +3744,16 @@
         <v>0.094</v>
       </c>
       <c r="F34">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="G34">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="J34">
         <v>0.094</v>
@@ -3764,31 +3764,31 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>3.217</v>
+        <v>3.225</v>
       </c>
       <c r="C35">
-        <v>3.23</v>
+        <v>3.236</v>
       </c>
       <c r="D35">
+        <v>3.233</v>
+      </c>
+      <c r="E35">
+        <v>3.233</v>
+      </c>
+      <c r="F35">
         <v>3.226</v>
       </c>
-      <c r="E35">
-        <v>3.227</v>
-      </c>
-      <c r="F35">
-        <v>3.218</v>
-      </c>
       <c r="G35">
-        <v>3.224</v>
+        <v>3.231</v>
       </c>
       <c r="H35">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="I35">
-        <v>3.217</v>
+        <v>3.225</v>
       </c>
       <c r="J35">
-        <v>3.23</v>
+        <v>3.236</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3796,31 +3796,31 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>60.487</v>
+        <v>60.603</v>
       </c>
       <c r="C36">
-        <v>60.695</v>
+        <v>60.792</v>
       </c>
       <c r="D36">
-        <v>60.631</v>
+        <v>60.738</v>
       </c>
       <c r="E36">
-        <v>60.643</v>
+        <v>60.739</v>
       </c>
       <c r="F36">
-        <v>60.502</v>
+        <v>60.622</v>
       </c>
       <c r="G36">
-        <v>60.592</v>
+        <v>60.699</v>
       </c>
       <c r="H36">
-        <v>0.092</v>
+        <v>0.082</v>
       </c>
       <c r="I36">
-        <v>60.487</v>
+        <v>60.603</v>
       </c>
       <c r="J36">
-        <v>60.695</v>
+        <v>60.792</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -5204,31 +5204,31 @@
         <v>10</v>
       </c>
       <c r="B7">
+        <v>0.056</v>
+      </c>
+      <c r="C7">
         <v>0.055</v>
       </c>
-      <c r="C7">
-        <v>0.054</v>
-      </c>
       <c r="D7">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="E7">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="F7">
         <v>0.053</v>
       </c>
       <c r="G7">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="H7">
         <v>0.002</v>
       </c>
       <c r="I7">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="J7">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5236,31 +5236,31 @@
         <v>11</v>
       </c>
       <c r="B8">
+        <v>0.194</v>
+      </c>
+      <c r="C8">
+        <v>0.191</v>
+      </c>
+      <c r="D8">
+        <v>0.205</v>
+      </c>
+      <c r="E8">
+        <v>0.185</v>
+      </c>
+      <c r="F8">
+        <v>0.186</v>
+      </c>
+      <c r="G8">
         <v>0.192</v>
       </c>
-      <c r="C8">
-        <v>0.187</v>
-      </c>
-      <c r="D8">
-        <v>0.202</v>
-      </c>
-      <c r="E8">
-        <v>0.18</v>
-      </c>
-      <c r="F8">
-        <v>0.183</v>
-      </c>
-      <c r="G8">
-        <v>0.189</v>
-      </c>
       <c r="H8">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="I8">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="J8">
-        <v>0.202</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5332,31 +5332,31 @@
         <v>14</v>
       </c>
       <c r="B11">
+        <v>40.372</v>
+      </c>
+      <c r="C11">
         <v>40.37</v>
       </c>
-      <c r="C11">
-        <v>40.368</v>
-      </c>
       <c r="D11">
-        <v>40.376</v>
+        <v>40.378</v>
       </c>
       <c r="E11">
-        <v>40.363</v>
+        <v>40.367</v>
       </c>
       <c r="F11">
-        <v>40.365</v>
+        <v>40.367</v>
       </c>
       <c r="G11">
-        <v>40.368</v>
+        <v>40.371</v>
       </c>
       <c r="H11">
         <v>0.005</v>
       </c>
       <c r="I11">
-        <v>40.363</v>
+        <v>40.367</v>
       </c>
       <c r="J11">
-        <v>40.376</v>
+        <v>40.378</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5364,31 +5364,31 @@
         <v>15</v>
       </c>
       <c r="B12">
+        <v>100.384</v>
+      </c>
+      <c r="C12">
         <v>100.378</v>
       </c>
-      <c r="C12">
-        <v>100.37</v>
-      </c>
       <c r="D12">
-        <v>100.397</v>
+        <v>100.404</v>
       </c>
       <c r="E12">
-        <v>100.356</v>
+        <v>100.367</v>
       </c>
       <c r="F12">
-        <v>100.363</v>
+        <v>100.367</v>
       </c>
       <c r="G12">
-        <v>100.373</v>
+        <v>100.38</v>
       </c>
       <c r="H12">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="I12">
-        <v>100.356</v>
+        <v>100.367</v>
       </c>
       <c r="J12">
-        <v>100.397</v>
+        <v>100.404</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5588,31 +5588,31 @@
         <v>10</v>
       </c>
       <c r="B20">
+        <v>0.056</v>
+      </c>
+      <c r="C20">
         <v>0.055</v>
       </c>
-      <c r="C20">
-        <v>0.054</v>
-      </c>
       <c r="D20">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="E20">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="F20">
         <v>0.053</v>
       </c>
       <c r="G20">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="H20">
         <v>0.002</v>
       </c>
       <c r="I20">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="J20">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5620,31 +5620,31 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.301</v>
+        <v>0.305</v>
       </c>
       <c r="C21">
-        <v>0.294</v>
+        <v>0.3</v>
       </c>
       <c r="D21">
-        <v>0.317</v>
+        <v>0.323</v>
       </c>
       <c r="E21">
-        <v>0.282</v>
+        <v>0.291</v>
       </c>
       <c r="F21">
-        <v>0.288</v>
+        <v>0.292</v>
       </c>
       <c r="G21">
-        <v>0.296</v>
+        <v>0.302</v>
       </c>
       <c r="H21">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="I21">
-        <v>0.282</v>
+        <v>0.291</v>
       </c>
       <c r="J21">
-        <v>0.317</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5716,31 +5716,31 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <v>100.378</v>
+        <v>100.383</v>
       </c>
       <c r="C24">
-        <v>100.369</v>
+        <v>100.377</v>
       </c>
       <c r="D24">
-        <v>100.397</v>
+        <v>100.404</v>
       </c>
       <c r="E24">
-        <v>100.356</v>
+        <v>100.366</v>
       </c>
       <c r="F24">
-        <v>100.362</v>
+        <v>100.367</v>
       </c>
       <c r="G24">
-        <v>100.372</v>
+        <v>100.379</v>
       </c>
       <c r="H24">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="I24">
-        <v>100.356</v>
+        <v>100.366</v>
       </c>
       <c r="J24">
-        <v>100.397</v>
+        <v>100.404</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5780,31 +5780,31 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>19.549</v>
+        <v>19.544</v>
       </c>
       <c r="C27">
-        <v>19.558</v>
+        <v>19.55</v>
       </c>
       <c r="D27">
-        <v>19.53</v>
+        <v>19.524</v>
       </c>
       <c r="E27">
-        <v>19.571</v>
+        <v>19.561</v>
       </c>
       <c r="F27">
-        <v>19.565</v>
+        <v>19.56</v>
       </c>
       <c r="G27">
-        <v>19.555</v>
+        <v>19.548</v>
       </c>
       <c r="H27">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="I27">
-        <v>19.53</v>
+        <v>19.524</v>
       </c>
       <c r="J27">
-        <v>19.571</v>
+        <v>19.561</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5812,31 +5812,31 @@
         <v>6</v>
       </c>
       <c r="B28">
+        <v>10.569</v>
+      </c>
+      <c r="C28">
         <v>10.572</v>
       </c>
-      <c r="C28">
-        <v>10.576</v>
-      </c>
       <c r="D28">
-        <v>10.562</v>
+        <v>10.558</v>
       </c>
       <c r="E28">
-        <v>10.584</v>
+        <v>10.578</v>
       </c>
       <c r="F28">
-        <v>10.58</v>
+        <v>10.578</v>
       </c>
       <c r="G28">
-        <v>10.575</v>
+        <v>10.571</v>
       </c>
       <c r="H28">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="I28">
-        <v>10.562</v>
+        <v>10.558</v>
       </c>
       <c r="J28">
-        <v>10.584</v>
+        <v>10.578</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5876,31 +5876,31 @@
         <v>8</v>
       </c>
       <c r="B30">
+        <v>3.135</v>
+      </c>
+      <c r="C30">
         <v>3.136</v>
       </c>
-      <c r="C30">
-        <v>3.137</v>
-      </c>
       <c r="D30">
-        <v>3.133</v>
+        <v>3.132</v>
       </c>
       <c r="E30">
-        <v>3.14</v>
+        <v>3.138</v>
       </c>
       <c r="F30">
         <v>3.138</v>
       </c>
       <c r="G30">
-        <v>3.137</v>
+        <v>3.136</v>
       </c>
       <c r="H30">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="I30">
-        <v>3.133</v>
+        <v>3.132</v>
       </c>
       <c r="J30">
-        <v>3.14</v>
+        <v>3.138</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5911,19 +5911,19 @@
         <v>1.176</v>
       </c>
       <c r="C31">
-        <v>1.177</v>
+        <v>1.176</v>
       </c>
       <c r="D31">
         <v>1.175</v>
       </c>
       <c r="E31">
-        <v>1.178</v>
+        <v>1.177</v>
       </c>
       <c r="F31">
         <v>1.177</v>
       </c>
       <c r="G31">
-        <v>1.177</v>
+        <v>1.176</v>
       </c>
       <c r="H31">
         <v>0.001</v>
@@ -5932,7 +5932,7 @@
         <v>1.175</v>
       </c>
       <c r="J31">
-        <v>1.178</v>
+        <v>1.177</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5940,31 +5940,31 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>1.314</v>
+        <v>1.333</v>
       </c>
       <c r="C32">
-        <v>1.283</v>
+        <v>1.311</v>
       </c>
       <c r="D32">
-        <v>1.382</v>
+        <v>1.407</v>
       </c>
       <c r="E32">
-        <v>1.233</v>
+        <v>1.271</v>
       </c>
       <c r="F32">
-        <v>1.257</v>
+        <v>1.273</v>
       </c>
       <c r="G32">
-        <v>1.294</v>
+        <v>1.319</v>
       </c>
       <c r="H32">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
       <c r="I32">
-        <v>1.233</v>
+        <v>1.271</v>
       </c>
       <c r="J32">
-        <v>1.382</v>
+        <v>1.407</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5972,31 +5972,31 @@
         <v>11</v>
       </c>
       <c r="B33">
+        <v>0.333</v>
+      </c>
+      <c r="C33">
         <v>0.328</v>
       </c>
-      <c r="C33">
-        <v>0.321</v>
-      </c>
       <c r="D33">
-        <v>0.346</v>
+        <v>0.352</v>
       </c>
       <c r="E33">
-        <v>0.308</v>
+        <v>0.318</v>
       </c>
       <c r="F33">
-        <v>0.314</v>
+        <v>0.318</v>
       </c>
       <c r="G33">
-        <v>0.323</v>
+        <v>0.33</v>
       </c>
       <c r="H33">
         <v>0.014</v>
       </c>
       <c r="I33">
-        <v>0.308</v>
+        <v>0.318</v>
       </c>
       <c r="J33">
-        <v>0.346</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6004,7 +6004,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>0.094</v>
+        <v>0.093</v>
       </c>
       <c r="C34">
         <v>0.094</v>
@@ -6019,7 +6019,7 @@
         <v>0.094</v>
       </c>
       <c r="G34">
-        <v>0.094</v>
+        <v>0.093</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -6039,28 +6039,28 @@
         <v>3.224</v>
       </c>
       <c r="C35">
+        <v>3.225</v>
+      </c>
+      <c r="D35">
+        <v>3.22</v>
+      </c>
+      <c r="E35">
         <v>3.226</v>
       </c>
-      <c r="D35">
-        <v>3.221</v>
-      </c>
-      <c r="E35">
-        <v>3.228</v>
-      </c>
       <c r="F35">
-        <v>3.227</v>
+        <v>3.226</v>
       </c>
       <c r="G35">
-        <v>3.225</v>
+        <v>3.224</v>
       </c>
       <c r="H35">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="I35">
-        <v>3.221</v>
+        <v>3.22</v>
       </c>
       <c r="J35">
-        <v>3.228</v>
+        <v>3.226</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6068,31 +6068,31 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>60.6</v>
+        <v>60.586</v>
       </c>
       <c r="C36">
-        <v>60.623</v>
+        <v>60.603</v>
       </c>
       <c r="D36">
-        <v>60.551</v>
+        <v>60.533</v>
       </c>
       <c r="E36">
-        <v>60.659</v>
+        <v>60.631</v>
       </c>
       <c r="F36">
-        <v>60.642</v>
+        <v>60.63</v>
       </c>
       <c r="G36">
-        <v>60.615</v>
+        <v>60.597</v>
       </c>
       <c r="H36">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
       <c r="I36">
-        <v>60.551</v>
+        <v>60.533</v>
       </c>
       <c r="J36">
-        <v>60.659</v>
+        <v>60.631</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6343,10 +6343,10 @@
         <v>0.067</v>
       </c>
       <c r="C7">
-        <v>0.066</v>
+        <v>0.065</v>
       </c>
       <c r="D7">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7">
         <v>0.063</v>
@@ -6364,7 +6364,7 @@
         <v>0.063</v>
       </c>
       <c r="J7">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6372,31 +6372,31 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.234</v>
+        <v>0.231</v>
       </c>
       <c r="C8">
-        <v>0.228</v>
+        <v>0.227</v>
       </c>
       <c r="D8">
-        <v>0.246</v>
+        <v>0.244</v>
       </c>
       <c r="E8">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="F8">
-        <v>0.223</v>
+        <v>0.221</v>
       </c>
       <c r="G8">
-        <v>0.23</v>
+        <v>0.229</v>
       </c>
       <c r="H8">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="I8">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="J8">
-        <v>0.246</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6468,19 +6468,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>40.394</v>
+        <v>40.393</v>
       </c>
       <c r="C11">
         <v>40.391</v>
       </c>
       <c r="D11">
-        <v>40.401</v>
+        <v>40.4</v>
       </c>
       <c r="E11">
-        <v>40.386</v>
+        <v>40.387</v>
       </c>
       <c r="F11">
-        <v>40.388</v>
+        <v>40.387</v>
       </c>
       <c r="G11">
         <v>40.392</v>
@@ -6489,10 +6489,10 @@
         <v>0.006</v>
       </c>
       <c r="I11">
-        <v>40.386</v>
+        <v>40.387</v>
       </c>
       <c r="J11">
-        <v>40.401</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6500,31 +6500,31 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>100.457</v>
+        <v>100.452</v>
       </c>
       <c r="C12">
-        <v>100.446</v>
+        <v>100.445</v>
       </c>
       <c r="D12">
-        <v>100.48</v>
+        <v>100.477</v>
       </c>
       <c r="E12">
-        <v>100.43</v>
+        <v>100.432</v>
       </c>
       <c r="F12">
-        <v>100.438</v>
+        <v>100.433</v>
       </c>
       <c r="G12">
-        <v>100.45</v>
+        <v>100.448</v>
       </c>
       <c r="H12">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="I12">
-        <v>100.43</v>
+        <v>100.432</v>
       </c>
       <c r="J12">
-        <v>100.48</v>
+        <v>100.477</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6727,10 +6727,10 @@
         <v>0.067</v>
       </c>
       <c r="C20">
-        <v>0.066</v>
+        <v>0.065</v>
       </c>
       <c r="D20">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E20">
         <v>0.063</v>
@@ -6748,7 +6748,7 @@
         <v>0.063</v>
       </c>
       <c r="J20">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6756,31 +6756,31 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="C21">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="D21">
-        <v>0.387</v>
+        <v>0.384</v>
       </c>
       <c r="E21">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="F21">
-        <v>0.351</v>
+        <v>0.347</v>
       </c>
       <c r="G21">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="H21">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="I21">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="J21">
-        <v>0.387</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6852,31 +6852,31 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <v>100.456</v>
+        <v>100.452</v>
       </c>
       <c r="C24">
-        <v>100.446</v>
+        <v>100.445</v>
       </c>
       <c r="D24">
-        <v>100.48</v>
+        <v>100.476</v>
       </c>
       <c r="E24">
-        <v>100.429</v>
+        <v>100.432</v>
       </c>
       <c r="F24">
-        <v>100.437</v>
+        <v>100.432</v>
       </c>
       <c r="G24">
-        <v>100.45</v>
+        <v>100.447</v>
       </c>
       <c r="H24">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="I24">
-        <v>100.429</v>
+        <v>100.432</v>
       </c>
       <c r="J24">
-        <v>100.48</v>
+        <v>100.476</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6916,31 +6916,31 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>19.472</v>
+        <v>19.476</v>
       </c>
       <c r="C27">
-        <v>19.482</v>
+        <v>19.483</v>
       </c>
       <c r="D27">
-        <v>19.449</v>
+        <v>19.452</v>
       </c>
       <c r="E27">
-        <v>19.498</v>
+        <v>19.496</v>
       </c>
       <c r="F27">
-        <v>19.49</v>
+        <v>19.495</v>
       </c>
       <c r="G27">
-        <v>19.478</v>
+        <v>19.481</v>
       </c>
       <c r="H27">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="I27">
-        <v>19.449</v>
+        <v>19.452</v>
       </c>
       <c r="J27">
-        <v>19.498</v>
+        <v>19.496</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6948,31 +6948,31 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>10.53</v>
+        <v>10.532</v>
       </c>
       <c r="C28">
+        <v>10.536</v>
+      </c>
+      <c r="D28">
+        <v>10.519</v>
+      </c>
+      <c r="E28">
+        <v>10.543</v>
+      </c>
+      <c r="F28">
+        <v>10.543</v>
+      </c>
+      <c r="G28">
         <v>10.535</v>
-      </c>
-      <c r="D28">
-        <v>10.518</v>
-      </c>
-      <c r="E28">
-        <v>10.544</v>
-      </c>
-      <c r="F28">
-        <v>10.54</v>
-      </c>
-      <c r="G28">
-        <v>10.533</v>
       </c>
       <c r="H28">
         <v>0.01</v>
       </c>
       <c r="I28">
-        <v>10.518</v>
+        <v>10.519</v>
       </c>
       <c r="J28">
-        <v>10.544</v>
+        <v>10.543</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -7021,10 +7021,10 @@
         <v>3.12</v>
       </c>
       <c r="E30">
-        <v>3.128</v>
+        <v>3.127</v>
       </c>
       <c r="F30">
-        <v>3.126</v>
+        <v>3.127</v>
       </c>
       <c r="G30">
         <v>3.125</v>
@@ -7036,7 +7036,7 @@
         <v>3.12</v>
       </c>
       <c r="J30">
-        <v>3.128</v>
+        <v>3.127</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -7050,7 +7050,7 @@
         <v>1.172</v>
       </c>
       <c r="D31">
-        <v>1.17</v>
+        <v>1.171</v>
       </c>
       <c r="E31">
         <v>1.173</v>
@@ -7065,7 +7065,7 @@
         <v>0.001</v>
       </c>
       <c r="I31">
-        <v>1.17</v>
+        <v>1.171</v>
       </c>
       <c r="J31">
         <v>1.173</v>
@@ -7076,31 +7076,31 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>1.597</v>
+        <v>1.581</v>
       </c>
       <c r="C32">
-        <v>1.559</v>
+        <v>1.555</v>
       </c>
       <c r="D32">
-        <v>1.68</v>
+        <v>1.669</v>
       </c>
       <c r="E32">
-        <v>1.499</v>
+        <v>1.508</v>
       </c>
       <c r="F32">
-        <v>1.528</v>
+        <v>1.51</v>
       </c>
       <c r="G32">
-        <v>1.573</v>
+        <v>1.565</v>
       </c>
       <c r="H32">
-        <v>0.07000000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="I32">
-        <v>1.499</v>
+        <v>1.508</v>
       </c>
       <c r="J32">
-        <v>1.68</v>
+        <v>1.669</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -7108,31 +7108,31 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>0.399</v>
+        <v>0.395</v>
       </c>
       <c r="C33">
-        <v>0.39</v>
+        <v>0.389</v>
       </c>
       <c r="D33">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
       <c r="E33">
-        <v>0.375</v>
+        <v>0.377</v>
       </c>
       <c r="F33">
-        <v>0.382</v>
+        <v>0.378</v>
       </c>
       <c r="G33">
-        <v>0.393</v>
+        <v>0.391</v>
       </c>
       <c r="H33">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="I33">
-        <v>0.375</v>
+        <v>0.377</v>
       </c>
       <c r="J33">
-        <v>0.42</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -7175,7 +7175,7 @@
         <v>3.212</v>
       </c>
       <c r="C35">
-        <v>3.213</v>
+        <v>3.214</v>
       </c>
       <c r="D35">
         <v>3.208</v>
@@ -7184,7 +7184,7 @@
         <v>3.216</v>
       </c>
       <c r="F35">
-        <v>3.215</v>
+        <v>3.216</v>
       </c>
       <c r="G35">
         <v>3.213</v>
@@ -7204,31 +7204,31 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>60.396</v>
+        <v>60.408</v>
       </c>
       <c r="C36">
-        <v>60.423</v>
+        <v>60.427</v>
       </c>
       <c r="D36">
-        <v>60.336</v>
+        <v>60.344</v>
       </c>
       <c r="E36">
-        <v>60.466</v>
+        <v>60.46</v>
       </c>
       <c r="F36">
-        <v>60.446</v>
+        <v>60.458</v>
       </c>
       <c r="G36">
-        <v>60.414</v>
+        <v>60.419</v>
       </c>
       <c r="H36">
-        <v>0.051</v>
+        <v>0.047</v>
       </c>
       <c r="I36">
-        <v>60.336</v>
+        <v>60.344</v>
       </c>
       <c r="J36">
-        <v>60.466</v>
+        <v>60.46</v>
       </c>
     </row>
     <row r="37" spans="1:10">
